--- a/doc/2_外部設計書/テーブル結合説明_WAC.xlsx
+++ b/doc/2_外部設計書/テーブル結合説明_WAC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\開発演習\外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C63501-B950-4E61-A909-2891C568BA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C28B7AE-457D-47D7-9336-E0E3048C5D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C47BA72-27C3-4F5D-9A63-3303C93D9CF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>＜データベースER図＞</t>
     <rPh sb="9" eb="10">
@@ -287,6 +287,14 @@
     <t>null</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ちちち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ppp</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -351,12 +359,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,6 +372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,10 +436,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -485,8 +493,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25349607" y="9768999"/>
-          <a:ext cx="3523649" cy="811079"/>
+          <a:off x="25652165" y="9768999"/>
+          <a:ext cx="3523650" cy="811079"/>
           <a:chOff x="365824" y="488789"/>
           <a:chExt cx="3136490" cy="846582"/>
         </a:xfrm>
@@ -1274,7 +1282,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="28838497" y="8779154"/>
+          <a:off x="29141056" y="8779154"/>
           <a:ext cx="4398150" cy="1967286"/>
           <a:chOff x="569407" y="3038838"/>
           <a:chExt cx="3598875" cy="1448159"/>
@@ -1472,8 +1480,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15971887" y="2084911"/>
-          <a:ext cx="5931092" cy="2271464"/>
+          <a:off x="15714152" y="2084911"/>
+          <a:ext cx="5987121" cy="2271464"/>
           <a:chOff x="4527755" y="3171154"/>
           <a:chExt cx="3136490" cy="2365448"/>
         </a:xfrm>
@@ -1871,8 +1879,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20821804" y="9359771"/>
-          <a:ext cx="4883806" cy="2983939"/>
+          <a:off x="20395981" y="9359771"/>
+          <a:ext cx="5612187" cy="2983939"/>
           <a:chOff x="446501" y="3407711"/>
           <a:chExt cx="2850490" cy="2991733"/>
         </a:xfrm>
@@ -2068,8 +2076,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15392399" y="9050045"/>
-          <a:ext cx="5467313" cy="1571685"/>
+          <a:off x="15134664" y="9050045"/>
+          <a:ext cx="5299225" cy="1571685"/>
           <a:chOff x="4425676" y="4186039"/>
           <a:chExt cx="3136490" cy="1571686"/>
         </a:xfrm>
@@ -2464,8 +2472,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="35906449" y="2655794"/>
-          <a:ext cx="3136491" cy="3387745"/>
+          <a:off x="36209007" y="2655794"/>
+          <a:ext cx="3136492" cy="3387745"/>
           <a:chOff x="446501" y="3407711"/>
           <a:chExt cx="3136491" cy="3387745"/>
         </a:xfrm>
@@ -2662,7 +2670,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="41160606" y="3094224"/>
+          <a:off x="41463165" y="3094224"/>
           <a:ext cx="3125841" cy="2558592"/>
           <a:chOff x="365824" y="488789"/>
           <a:chExt cx="3136490" cy="2678151"/>
@@ -3083,13 +3091,13 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>872435</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:rowOff>42875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>143565</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>209826</xdr:rowOff>
+      <xdr:rowOff>120179</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3104,8 +3112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19701565" y="6338957"/>
-          <a:ext cx="2054087" cy="773043"/>
+          <a:off x="18891494" y="6060434"/>
+          <a:ext cx="2285512" cy="749657"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst/>
@@ -3725,20 +3733,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003D119E-0629-4535-B7F4-489BFB3493FE}">
   <dimension ref="A1:BG178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P41" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AA59" sqref="AA59"/>
+    <sheetView tabSelected="1" topLeftCell="P50" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="AB76" sqref="AB76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="8" max="8" width="19.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.796875" customWidth="1"/>
+    <col min="21" max="21" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.19921875" customWidth="1"/>
     <col min="28" max="28" width="20.09765625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -5653,32 +5663,32 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="8" t="s">
+      <c r="S32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="T32" s="4" t="s">
+      <c r="T32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="AA32" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="V32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA32" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="AB32" s="5" t="s">
         <v>12</v>
@@ -5731,28 +5741,28 @@
         <v>1</v>
       </c>
       <c r="T33" s="3">
+        <v>78</v>
+      </c>
+      <c r="U33" s="3">
+        <v>34</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y33" s="8">
+        <v>45467.489525462966</v>
+      </c>
+      <c r="Z33" s="3">
         <v>4</v>
       </c>
-      <c r="U33" s="3">
+      <c r="AA33" s="3">
         <v>1</v>
-      </c>
-      <c r="V33" s="3">
-        <v>78</v>
-      </c>
-      <c r="W33" s="3">
-        <v>34</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA33" s="9">
-        <v>45467.489525462966</v>
       </c>
       <c r="AB33" s="3" t="s">
         <v>28</v>
@@ -5805,28 +5815,28 @@
         <v>2</v>
       </c>
       <c r="T34" s="3">
+        <v>5</v>
+      </c>
+      <c r="U34" s="3">
+        <v>56</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>45468.489525462966</v>
+      </c>
+      <c r="Z34" s="3">
         <v>43</v>
       </c>
-      <c r="U34" s="3">
+      <c r="AA34" s="3">
         <v>1</v>
-      </c>
-      <c r="V34" s="3">
-        <v>5</v>
-      </c>
-      <c r="W34" s="3">
-        <v>56</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA34" s="9">
-        <v>45468.489525462966</v>
       </c>
       <c r="AB34" s="3" t="s">
         <v>29</v>
@@ -5879,28 +5889,28 @@
         <v>3</v>
       </c>
       <c r="T35" s="3">
+        <v>56</v>
+      </c>
+      <c r="U35" s="3">
+        <v>6</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y35" s="8">
+        <v>45469.489525462966</v>
+      </c>
+      <c r="Z35" s="3">
         <v>20</v>
       </c>
-      <c r="U35" s="3">
+      <c r="AA35" s="3">
         <v>1</v>
-      </c>
-      <c r="V35" s="3">
-        <v>56</v>
-      </c>
-      <c r="W35" s="3">
-        <v>6</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA35" s="9">
-        <v>45469.489525462966</v>
       </c>
       <c r="AB35" s="3" t="s">
         <v>30</v>
@@ -5953,28 +5963,28 @@
         <v>4</v>
       </c>
       <c r="T36" s="3">
+        <v>44</v>
+      </c>
+      <c r="U36" s="3">
+        <v>14</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>45470.489525462966</v>
+      </c>
+      <c r="Z36" s="3">
         <v>33</v>
       </c>
-      <c r="U36" s="3">
+      <c r="AA36" s="3">
         <v>1</v>
-      </c>
-      <c r="V36" s="3">
-        <v>44</v>
-      </c>
-      <c r="W36" s="3">
-        <v>14</v>
-      </c>
-      <c r="X36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA36" s="9">
-        <v>45470.489525462966</v>
       </c>
       <c r="AB36" s="3" t="s">
         <v>31</v>
@@ -6027,28 +6037,28 @@
         <v>5</v>
       </c>
       <c r="T37" s="3">
+        <v>30</v>
+      </c>
+      <c r="U37" s="3">
+        <v>5</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y37" s="8">
+        <v>45471.489525462966</v>
+      </c>
+      <c r="Z37" s="3">
         <v>40</v>
       </c>
-      <c r="U37" s="3">
+      <c r="AA37" s="3">
         <v>1</v>
-      </c>
-      <c r="V37" s="3">
-        <v>30</v>
-      </c>
-      <c r="W37" s="3">
-        <v>5</v>
-      </c>
-      <c r="X37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA37" s="9">
-        <v>45471.489525462966</v>
       </c>
       <c r="AB37" s="3" t="s">
         <v>32</v>
@@ -6101,28 +6111,28 @@
         <v>6</v>
       </c>
       <c r="T38" s="3">
+        <v>4</v>
+      </c>
+      <c r="U38" s="3">
+        <v>32</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y38" s="8">
+        <v>45472.489525462966</v>
+      </c>
+      <c r="Z38" s="3">
         <v>87</v>
       </c>
-      <c r="U38" s="3">
+      <c r="AA38" s="3">
         <v>0</v>
-      </c>
-      <c r="V38" s="3">
-        <v>4</v>
-      </c>
-      <c r="W38" s="3">
-        <v>32</v>
-      </c>
-      <c r="X38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA38" s="9">
-        <v>45472.489525462966</v>
       </c>
       <c r="AB38" s="3" t="s">
         <v>42</v>
@@ -6174,28 +6184,28 @@
         <v>7</v>
       </c>
       <c r="T39" s="3">
+        <v>45</v>
+      </c>
+      <c r="U39" s="3">
+        <v>8</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y39" s="8">
+        <v>45473.489525462966</v>
+      </c>
+      <c r="Z39" s="3">
         <v>101</v>
       </c>
-      <c r="U39" s="3">
+      <c r="AA39" s="3">
         <v>1</v>
-      </c>
-      <c r="V39" s="3">
-        <v>45</v>
-      </c>
-      <c r="W39" s="3">
-        <v>8</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA39" s="9">
-        <v>45473.489525462966</v>
       </c>
       <c r="AB39" s="3" t="s">
         <v>43</v>
@@ -7208,18 +7218,18 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="10" t="s">
         <v>47</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="10" t="s">
         <v>47</v>
       </c>
       <c r="M56" s="1"/>
@@ -7289,7 +7299,7 @@
         <v>3</v>
       </c>
       <c r="L57" s="3">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -7358,7 +7368,7 @@
         <v>3</v>
       </c>
       <c r="L58" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -7431,32 +7441,32 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="8" t="s">
+      <c r="S59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="T59" s="4" t="s">
+      <c r="T59" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U59" s="4" t="s">
+      <c r="AA59" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="V59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="W59" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA59" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="AB59" s="5" t="s">
         <v>12</v>
@@ -7464,7 +7474,7 @@
       <c r="AC59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AD59" s="10" t="s">
+      <c r="AD59" s="9" t="s">
         <v>1</v>
       </c>
       <c r="AE59" s="1"/>
@@ -7523,28 +7533,28 @@
         <v>1</v>
       </c>
       <c r="T60" s="3">
+        <v>78</v>
+      </c>
+      <c r="U60" s="3">
+        <v>34</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y60" s="8">
+        <v>45467.489525462966</v>
+      </c>
+      <c r="Z60" s="3">
         <v>4</v>
       </c>
-      <c r="U60" s="3">
+      <c r="AA60" s="3">
         <v>1</v>
-      </c>
-      <c r="V60" s="3">
-        <v>78</v>
-      </c>
-      <c r="W60" s="3">
-        <v>34</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA60" s="9">
-        <v>45467.489525462966</v>
       </c>
       <c r="AB60" s="3" t="s">
         <v>28</v>
@@ -7552,8 +7562,8 @@
       <c r="AC60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AD60" s="3" t="s">
-        <v>48</v>
+      <c r="AD60" s="3">
+        <v>3</v>
       </c>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
@@ -7608,37 +7618,37 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T61" s="3">
+        <v>78</v>
+      </c>
+      <c r="U61" s="3">
+        <v>34</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y61" s="8">
+        <v>45467.489525462966</v>
+      </c>
+      <c r="Z61" s="3">
         <v>43</v>
       </c>
-      <c r="U61" s="3">
+      <c r="AA61" s="3">
         <v>1</v>
       </c>
-      <c r="V61" s="3">
-        <v>2</v>
-      </c>
-      <c r="W61" s="3">
-        <v>56</v>
-      </c>
-      <c r="X61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z61" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA61" s="9">
-        <v>45468.489525462966</v>
-      </c>
       <c r="AB61" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC61" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD61" s="3">
         <v>3</v>
@@ -7683,7 +7693,7 @@
         <v>3</v>
       </c>
       <c r="H62" s="3">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -7696,40 +7706,40 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="3">
+        <v>1</v>
+      </c>
+      <c r="T62" s="3">
+        <v>78</v>
+      </c>
+      <c r="U62" s="3">
+        <v>34</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y62" s="8">
+        <v>45467.489525462966</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD62" s="3">
         <v>3</v>
-      </c>
-      <c r="T62" s="3">
-        <v>20</v>
-      </c>
-      <c r="U62" s="3">
-        <v>1</v>
-      </c>
-      <c r="V62" s="3">
-        <v>56</v>
-      </c>
-      <c r="W62" s="3">
-        <v>6</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA62" s="9">
-        <v>45469.489525462966</v>
-      </c>
-      <c r="AB62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD62" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
@@ -7772,7 +7782,7 @@
         <v>3</v>
       </c>
       <c r="H63" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -7785,37 +7795,35 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T63" s="3">
+        <v>78</v>
+      </c>
+      <c r="U63" s="3">
+        <v>34</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y63" s="8">
+        <v>45467.489525462966</v>
+      </c>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC63" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="U63" s="3">
-        <v>1</v>
-      </c>
-      <c r="V63" s="3">
-        <v>10</v>
-      </c>
-      <c r="W63" s="3">
-        <v>14</v>
-      </c>
-      <c r="X63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA63" s="9">
-        <v>45470.489525462966</v>
-      </c>
-      <c r="AB63" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC63" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="AD63" s="3">
         <v>3</v>
@@ -7874,31 +7882,31 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="3">
+        <v>2</v>
+      </c>
+      <c r="T64" s="3">
+        <v>30</v>
+      </c>
+      <c r="U64" s="3">
         <v>5</v>
       </c>
-      <c r="T64" s="3">
+      <c r="V64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y64" s="8">
+        <v>45471.489525462966</v>
+      </c>
+      <c r="Z64" s="3">
         <v>40</v>
       </c>
-      <c r="U64" s="3">
+      <c r="AA64" s="3">
         <v>1</v>
-      </c>
-      <c r="V64" s="3">
-        <v>30</v>
-      </c>
-      <c r="W64" s="3">
-        <v>5</v>
-      </c>
-      <c r="X64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z64" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA64" s="9">
-        <v>45471.489525462966</v>
       </c>
       <c r="AB64" s="3" t="s">
         <v>32</v>
@@ -7959,31 +7967,29 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T65" s="3">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="U65" s="3">
+        <v>32</v>
+      </c>
+      <c r="V65" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W65" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y65" s="8">
+        <v>45472.489525462966</v>
+      </c>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3">
         <v>0</v>
-      </c>
-      <c r="V65" s="3">
-        <v>4</v>
-      </c>
-      <c r="W65" s="3">
-        <v>32</v>
-      </c>
-      <c r="X65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y65" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z65" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA65" s="9">
-        <v>45472.489525462966</v>
       </c>
       <c r="AB65" s="3" t="s">
         <v>42</v>
@@ -7991,8 +7997,8 @@
       <c r="AC65" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AD65" s="3" t="s">
-        <v>48</v>
+      <c r="AD65" s="3">
+        <v>3</v>
       </c>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
@@ -8044,40 +8050,40 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T66" s="3">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
+        <v>32</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y66" s="8">
+        <v>45472.489525462966</v>
+      </c>
+      <c r="Z66" s="3">
         <v>101</v>
       </c>
-      <c r="U66" s="3">
+      <c r="AA66" s="3">
         <v>1</v>
       </c>
-      <c r="V66" s="3">
-        <v>45</v>
-      </c>
-      <c r="W66" s="3">
-        <v>8</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z66" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA66" s="9">
-        <v>45473.489525462966</v>
-      </c>
       <c r="AB66" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC66" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD66" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>3</v>
       </c>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
@@ -8128,18 +8134,42 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
+      <c r="S67" s="3">
+        <v>4</v>
+      </c>
+      <c r="T67" s="3">
+        <v>78</v>
+      </c>
+      <c r="U67" s="3">
+        <v>2</v>
+      </c>
+      <c r="V67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y67" s="8">
+        <v>45474.489525462966</v>
+      </c>
+      <c r="Z67" s="3">
+        <v>43</v>
+      </c>
+      <c r="AA67" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD67" s="3">
+        <v>3</v>
+      </c>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
@@ -8189,18 +8219,40 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
+      <c r="S68" s="3">
+        <v>4</v>
+      </c>
+      <c r="T68" s="3">
+        <v>78</v>
+      </c>
+      <c r="U68" s="3">
+        <v>2</v>
+      </c>
+      <c r="V68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y68" s="8">
+        <v>45474.489525462966</v>
+      </c>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>3</v>
+      </c>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
@@ -8250,18 +8302,42 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
+      <c r="S69" s="3">
+        <v>4</v>
+      </c>
+      <c r="T69" s="3">
+        <v>78</v>
+      </c>
+      <c r="U69" s="3">
+        <v>2</v>
+      </c>
+      <c r="V69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y69" s="8">
+        <v>45474.489525462966</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>3</v>
+      </c>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
@@ -8311,18 +8387,42 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
+      <c r="S70" s="3">
+        <v>4</v>
+      </c>
+      <c r="T70" s="3">
+        <v>78</v>
+      </c>
+      <c r="U70" s="3">
+        <v>2</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y70" s="8">
+        <v>45474.489525462966</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>101</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>3</v>
+      </c>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
